--- a/docs/odh/obf-MedicationCodeOrReference-extension.xlsx
+++ b/docs/odh/obf-MedicationCodeOrReference-extension.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
   <si>
     <t>Path</t>
   </si>
@@ -219,20 +219,17 @@
     <t>http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationCodeOrReference-extension</t>
   </si>
   <si>
-    <t>Extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication)</t>
   </si>
   <si>
     <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
 </sst>
 </file>
@@ -390,7 +387,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1008,10 +1005,10 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>44</v>
